--- a/ECAD/PCBs/OH_Specific/Backlighting/DEFOG_Panel_PCB_V2/Manufacturing/DEFOG Panel PCB V2 BOM.xlsx
+++ b/ECAD/PCBs/OH_Specific/Backlighting/DEFOG_Panel_PCB_V2/Manufacturing/DEFOG Panel PCB V2 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e59a830b46a4ae1e/Desktop/Hornet_Panel_Backlighting/Version_2/DEFOG_Panel_PCB_V2/Manufacturing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e59a830b46a4ae1e/SC Media/Projects/OH Project/Hornet_Panel_Backlighting/Version_2/DEFOG_Panel_PCB_V2/Manufacturing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{37B77ACA-6A68-44BE-8580-42B3C3519FC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{99FF0CA9-5338-4717-A5E3-48B94881A09F}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{37B77ACA-6A68-44BE-8580-42B3C3519FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CDD46A-ACF1-42A5-8002-3B120B2A47F7}"/>
   <bookViews>
-    <workbookView xWindow="31536" yWindow="1356" windowWidth="23040" windowHeight="12204" xr2:uid="{697B28B8-7759-4539-9BE2-B94229C398CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12252" xr2:uid="{697B28B8-7759-4539-9BE2-B94229C398CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>C114583</t>
   </si>
   <si>
-    <t>D1-29</t>
+    <t>D1-22</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
